--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/10/seed3/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.520700000000001</v>
+        <v>8.329099999999999</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -508,7 +508,7 @@
         <v>-11.8</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.763700000000007</v>
+        <v>-7.719900000000004</v>
       </c>
     </row>
     <row r="6">
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.15559999999998</v>
+        <v>-22.00869999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -597,13 +597,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.15169999999999</v>
+        <v>-21.7637</v>
       </c>
       <c r="B12" t="n">
-        <v>5.950800000000003</v>
+        <v>6.026099999999996</v>
       </c>
       <c r="C12" t="n">
-        <v>-12.26440000000001</v>
+        <v>-11.0678</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -617,7 +617,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.1654</v>
+        <v>-12.5678</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>5.174199999999998</v>
+        <v>5.3217</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.25600000000001</v>
+        <v>-22.15550000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -729,7 +729,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.5954</v>
+        <v>-13.77959999999999</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.313500000000001</v>
+        <v>-8.235800000000003</v>
       </c>
     </row>
     <row r="24">
@@ -796,13 +796,13 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.669400000000001</v>
+        <v>4.476500000000002</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.850300000000001</v>
+        <v>-7.874000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.870500000000004</v>
+        <v>5.5932</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.155400000000002</v>
+        <v>6.191600000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.452900000000002</v>
+        <v>-7.671700000000003</v>
       </c>
     </row>
     <row r="35">
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-11.76300000000001</v>
+        <v>-11.923</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-21.86779999999999</v>
+        <v>-21.91249999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>6.247100000000001</v>
+        <v>6.3811</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -967,7 +967,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.5676</v>
+        <v>-13.0417</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -998,7 +998,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-9.245499999999991</v>
+        <v>-8.995299999999991</v>
       </c>
     </row>
     <row r="41">
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.69660000000001</v>
+        <v>-12.71200000000001</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.484500000000001</v>
+        <v>-7.763199999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.0534</v>
+        <v>-11.05470000000001</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.0438</v>
+        <v>-22.2032</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1278,7 +1278,7 @@
         <v>-13.33</v>
       </c>
       <c r="D60" t="n">
-        <v>-8.6488</v>
+        <v>-8.617699999999999</v>
       </c>
     </row>
     <row r="61">
@@ -1342,7 +1342,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>6.006500000000002</v>
+        <v>6.316500000000003</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.4497</v>
+        <v>-11.5319</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.4566</v>
+        <v>-21.47739999999999</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1446,7 +1446,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-6.982199999999994</v>
+        <v>-6.825499999999998</v>
       </c>
     </row>
     <row r="73">
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>9.331399999999995</v>
+        <v>9.444800000000001</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.706</v>
+        <v>-20.73299999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.75399999999998</v>
+        <v>-19.71579999999997</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.101499999999994</v>
+        <v>-8.9902</v>
       </c>
     </row>
     <row r="84">
@@ -1608,7 +1608,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>4.827299999999997</v>
+        <v>5.0575</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1622,7 +1622,7 @@
         <v>-21.53</v>
       </c>
       <c r="B85" t="n">
-        <v>5.688400000000001</v>
+        <v>5.912100000000004</v>
       </c>
       <c r="C85" t="n">
         <v>-13.1</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-14.38099999999999</v>
+        <v>-14.17779999999999</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.657299999999997</v>
+        <v>5.5837</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1762,10 +1762,10 @@
         <v>-22.29</v>
       </c>
       <c r="B95" t="n">
-        <v>6.137400000000001</v>
+        <v>6.549700000000005</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.49530000000001</v>
+        <v>-12.42339999999999</v>
       </c>
       <c r="D95" t="n">
         <v>-6.1</v>
@@ -1804,7 +1804,7 @@
         <v>-20.86</v>
       </c>
       <c r="B98" t="n">
-        <v>5.030900000000007</v>
+        <v>5.345100000000006</v>
       </c>
       <c r="C98" t="n">
         <v>-10.59</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>5.7007</v>
+        <v>5.594699999999996</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>6.223400000000001</v>
+        <v>5.7759</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1905,7 +1905,7 @@
         <v>9.01</v>
       </c>
       <c r="C105" t="n">
-        <v>-12.58410000000001</v>
+        <v>-12.40930000000001</v>
       </c>
       <c r="D105" t="n">
         <v>-8.630000000000001</v>
